--- a/basedatos.xlsx
+++ b/basedatos.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\UASD 2023-2\Inteligencia Artificial\transporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B44D4FF8-1284-46B8-A3A0-55B9569D98D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{6BA070D6-E664-485F-986B-E9FC12EA3E45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Estaciones" sheetId="2" r:id="rId1"/>
     <sheet name="Rutas" sheetId="3" r:id="rId2"/>
     <sheet name="Horarios" sheetId="4" r:id="rId3"/>
-    <sheet name="Vehículos" sheetId="5" r:id="rId4"/>
+    <sheet name="Vehiculos" sheetId="5" r:id="rId4"/>
     <sheet name="Usuarios" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
@@ -2253,7 +2253,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E6"/>
     </sheetView>
   </sheetViews>
@@ -2592,7 +2592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:D6"/>
     </sheetView>
   </sheetViews>

--- a/basedatos.xlsx
+++ b/basedatos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\UASD 2023-2\Inteligencia Artificial\transporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{6BA070D6-E664-485F-986B-E9FC12EA3E45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{F7FC811A-0439-48EA-9517-1CB9FD1292E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
   </bookViews>
@@ -46,6 +46,9 @@
     <t>Distancia_km</t>
   </si>
   <si>
+    <t>ID_Vehiculo</t>
+  </si>
+  <si>
     <t>Tipo</t>
   </si>
   <si>
@@ -119,9 +122,6 @@
   </si>
   <si>
     <t>Hora_Llegada</t>
-  </si>
-  <si>
-    <t>ID_Vehículo</t>
   </si>
   <si>
     <t>Consumo_Combustible_Litros_km</t>
@@ -1933,7 +1933,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Tabla_Vehiculos" displayName="Tabla_Vehiculos" ref="A1:D6" totalsRowShown="0" headerRowDxfId="6" dataDxfId="7" headerRowBorderDxfId="12" tableBorderDxfId="13">
   <autoFilter ref="A1:D6"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="ID_Vehículo" dataDxfId="11"/>
+    <tableColumn id="1" name="ID_Vehiculo" dataDxfId="11"/>
     <tableColumn id="2" name="Tipo" dataDxfId="10"/>
     <tableColumn id="3" name="Capacidad" dataDxfId="9"/>
     <tableColumn id="4" name="Consumo_Combustible_Litros_km" dataDxfId="8"/>
@@ -2266,10 +2266,10 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>0</v>
@@ -2278,15 +2278,15 @@
         <v>1</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1">
         <v>40.712800000000001</v>
@@ -2300,10 +2300,10 @@
     </row>
     <row r="3" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1">
         <v>40.706000000000003</v>
@@ -2317,10 +2317,10 @@
     </row>
     <row r="4" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1">
         <v>40.729100000000003</v>
@@ -2334,10 +2334,10 @@
     </row>
     <row r="5" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1">
         <v>40.752699999999997</v>
@@ -2351,10 +2351,10 @@
     </row>
     <row r="6" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="7">
         <v>40.747999999999998</v>
@@ -2395,13 +2395,13 @@
         <v>2</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>3</v>
@@ -2409,13 +2409,13 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1">
         <v>20</v>
@@ -2426,13 +2426,13 @@
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" s="1">
         <v>15</v>
@@ -2443,13 +2443,13 @@
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1">
         <v>25</v>
@@ -2460,13 +2460,13 @@
     </row>
     <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1">
         <v>30</v>
@@ -2477,13 +2477,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" s="7">
         <v>18</v>
@@ -2519,15 +2519,15 @@
         <v>2</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="2">
         <v>0.33333333333333331</v>
@@ -2538,7 +2538,7 @@
     </row>
     <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3" s="2">
         <v>0.375</v>
@@ -2549,7 +2549,7 @@
     </row>
     <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="2">
         <v>0.41666666666666669</v>
@@ -2560,7 +2560,7 @@
     </row>
     <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="2">
         <v>0.45833333333333331</v>
@@ -2571,7 +2571,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="8">
         <v>0.5</v>
@@ -2593,7 +2593,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D6"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2605,13 +2605,13 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>30</v>
@@ -2726,7 +2726,7 @@
         <v>43</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2">
         <v>0.35416666666666669</v>
@@ -2737,7 +2737,7 @@
         <v>44</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2">
         <v>0.38541666666666669</v>
@@ -2748,7 +2748,7 @@
         <v>45</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2">
         <v>0.41666666666666669</v>
@@ -2759,7 +2759,7 @@
         <v>46</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2">
         <v>0.47916666666666669</v>
@@ -2770,7 +2770,7 @@
         <v>47</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" s="8">
         <v>0.5</v>

--- a/basedatos.xlsx
+++ b/basedatos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\UASD 2023-2\Inteligencia Artificial\transporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B3498B-EA37-4AE4-982E-AF1C8A301194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D8812B-6F8A-407E-94AC-643E929A6B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>Latitud</t>
   </si>
@@ -55,12 +55,6 @@
     <t>Capacidad</t>
   </si>
   <si>
-    <t>E1</t>
-  </si>
-  <si>
-    <t>E2</t>
-  </si>
-  <si>
     <t>ID_Estación</t>
   </si>
   <si>
@@ -76,19 +70,10 @@
     <t>Jardines del Sur</t>
   </si>
   <si>
-    <t>E3</t>
-  </si>
-  <si>
     <t>Universidad Rey</t>
   </si>
   <si>
-    <t>E4</t>
-  </si>
-  <si>
     <t>Mercado Norte</t>
-  </si>
-  <si>
-    <t>E5</t>
   </si>
   <si>
     <t>Parque Estrella</t>
@@ -2221,10 +2206,10 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>0</v>
@@ -2233,7 +2218,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2241,7 +2226,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1">
         <v>40.712800000000001</v>
@@ -2258,7 +2243,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1">
         <v>40.706000000000003</v>
@@ -2275,7 +2260,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1">
         <v>40.729100000000003</v>
@@ -2292,7 +2277,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1">
         <v>40.752699999999997</v>
@@ -2309,7 +2294,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C6" s="7">
         <v>40.747999999999998</v>
@@ -2334,13 +2319,13 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="24.42578125" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" customWidth="1"/>
   </cols>
@@ -2350,13 +2335,13 @@
         <v>2</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>3</v>
@@ -2366,11 +2351,11 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>14</v>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3</v>
       </c>
       <c r="D2" s="1">
         <v>20</v>
@@ -2383,11 +2368,11 @@
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>18</v>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>5</v>
       </c>
       <c r="D3" s="1">
         <v>15</v>
@@ -2400,11 +2385,11 @@
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>4</v>
       </c>
       <c r="D4" s="1">
         <v>25</v>
@@ -2417,11 +2402,11 @@
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4</v>
       </c>
       <c r="D5" s="1">
         <v>30</v>
@@ -2434,11 +2419,11 @@
       <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>14</v>
+      <c r="B6" s="7">
+        <v>2</v>
+      </c>
+      <c r="C6" s="7">
+        <v>3</v>
       </c>
       <c r="D6" s="7">
         <v>18</v>
@@ -2474,10 +2459,10 @@
         <v>2</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2569,7 +2554,7 @@
         <v>6</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2577,7 +2562,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1">
         <v>50</v>
@@ -2591,7 +2576,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1">
         <v>100</v>
@@ -2605,7 +2590,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1">
         <v>30</v>
@@ -2619,7 +2604,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C5" s="1">
         <v>80</v>
@@ -2633,7 +2618,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C6" s="7">
         <v>60</v>
@@ -2655,7 +2640,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2667,21 +2652,21 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
+      <c r="B2" s="1">
+        <v>1</v>
       </c>
       <c r="C2" s="2">
         <v>0.35416666666666669</v>
@@ -2691,8 +2676,8 @@
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>14</v>
+      <c r="B3" s="1">
+        <v>3</v>
       </c>
       <c r="C3" s="2">
         <v>0.38541666666666669</v>
@@ -2702,8 +2687,8 @@
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
+      <c r="B4" s="1">
+        <v>2</v>
       </c>
       <c r="C4" s="2">
         <v>0.41666666666666669</v>
@@ -2713,8 +2698,8 @@
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>16</v>
+      <c r="B5" s="1">
+        <v>4</v>
       </c>
       <c r="C5" s="2">
         <v>0.47916666666666669</v>
@@ -2724,8 +2709,8 @@
       <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>18</v>
+      <c r="B6" s="7">
+        <v>5</v>
       </c>
       <c r="C6" s="8">
         <v>0.5</v>
